--- a/data/outputs/management/68.xlsx
+++ b/data/outputs/management/68.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ49"/>
+  <dimension ref="A1:BR49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>28849706</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1148,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4339933</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1354,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1572,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4383201</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1769,6 +1790,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4403793</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1970,6 +1996,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2175,6 +2202,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2392,6 +2420,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2601,6 +2630,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4402828</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2818,6 +2852,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4377496</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3031,6 +3070,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4397808</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3232,6 +3276,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4561701</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3429,6 +3478,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>3976158</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3646,6 +3700,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4246339</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3863,6 +3922,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3960508</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4080,6 +4144,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>7526628</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4289,6 +4358,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4002867</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4498,6 +4572,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>3926962</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4711,6 +4790,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3016025</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4908,6 +4992,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5117,6 +5202,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>2470425</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5322,6 +5412,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>2279366</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5543,6 +5638,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5748,6 +5844,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3935858</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5953,6 +6054,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6162,6 +6264,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6359,6 +6462,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>3887489</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6568,6 +6676,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>3895803</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6769,6 +6882,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6970,6 +7084,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7179,6 +7294,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7388,6 +7504,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7597,6 +7714,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7802,6 +7920,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>2997032</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8011,6 +8134,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8232,6 +8356,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8433,6 +8558,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>15540205</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8634,6 +8764,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8851,6 +8982,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>2998393</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9052,6 +9188,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2974101</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9261,6 +9402,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9466,6 +9608,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9675,6 +9818,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9872,6 +10016,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10077,6 +10222,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2624319</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10294,6 +10444,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10507,6 +10658,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10724,6 +10876,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>2947080</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
